--- a/Start Your Own/Week 2 preperations.xlsx
+++ b/Start Your Own/Week 2 preperations.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oferg/work/mycode/ChatGPT-Micro-Cap-Experiment/Start Your Own/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofer_g\work\mycode\ChatGPT-Micro-Cap-Experiment\Start Your Own\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262EEA0A-9C02-2049-A348-1F164B0A9BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A467739-F31A-461A-B9B8-8E65293AE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="excellent. Thank you. Let me ch" sheetId="1" r:id="rId1"/>
+    <sheet name="week2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -338,9 +338,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -360,7 +364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -380,7 +384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -400,7 +404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -420,7 +424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -440,7 +444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
